--- a/1-Excel/class-02-search-functions.xlsx
+++ b/1-Excel/class-02-search-functions.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40cbc61c02823304/Área de Trabalho/Emanuel/Data-Analyst-Course/1-Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{364DF217-0A73-48DA-BDE6-6D5775F78FBB}"/>
+  <xr:revisionPtr revIDLastSave="531" documentId="11_AD4D361C20488DEA4E38A0DDDC5C55145ADEDD8C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7ED10745-F28E-47D7-ABBA-BE3686DEE7A5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha 1" sheetId="1" r:id="rId1"/>
+    <sheet name="PROCV" sheetId="1" r:id="rId1"/>
+    <sheet name="ÍNDICE-CORRESP" sheetId="2" r:id="rId2"/>
+    <sheet name="DESLOC" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,9 +37,74 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+  <si>
+    <t>NOME</t>
+  </si>
+  <si>
+    <t>CIDADE</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>VENDEDOR 1</t>
+  </si>
+  <si>
+    <t>VENDEDOR 2</t>
+  </si>
+  <si>
+    <t>VENDEDOR 3</t>
+  </si>
+  <si>
+    <t>VENDEDOR 4</t>
+  </si>
+  <si>
+    <t>VENDEDOR 5</t>
+  </si>
+  <si>
+    <t>VENDEDOR 6</t>
+  </si>
+  <si>
+    <t>VENDEDOR 7</t>
+  </si>
+  <si>
+    <t>VENDEDOR 8</t>
+  </si>
+  <si>
+    <t>VENDEDOR 9</t>
+  </si>
+  <si>
+    <t>VENDEDOR 10</t>
+  </si>
+  <si>
+    <t>JUCÁS</t>
+  </si>
+  <si>
+    <t>CARIÚS</t>
+  </si>
+  <si>
+    <t>IGUATU</t>
+  </si>
+  <si>
+    <t>SABOEIRO</t>
+  </si>
+  <si>
+    <t>TARRAFAS</t>
+  </si>
+  <si>
+    <t>VENDAS</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -51,16 +118,35 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -68,14 +154,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -89,6 +198,22 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B268763-B493-4EA6-B104-995796434367}" name="Tabela2" displayName="Tabela2" ref="B2:D12" totalsRowShown="0">
+  <autoFilter ref="B2:D12" xr:uid="{4B268763-B493-4EA6-B104-995796434367}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{25E83C04-6924-4FEC-ADFE-FA1A8FA36F5F}" name="NOME"/>
+    <tableColumn id="2" xr3:uid="{C6E491BE-85F4-4872-8E58-E1AC09A95063}" name="CIDADE"/>
+    <tableColumn id="3" xr3:uid="{C68673E7-DB16-41A0-8E39-9F1637AF7294}" name="TOTAL" dataCellStyle="Moeda"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -354,24 +479,198 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.08984375" customWidth="1"/>
     <col min="6" max="6" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
     <col min="8" max="8" width="16.36328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.26953125" customWidth="1"/>
     <col min="11" max="11" width="10.08984375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1">
+        <v>12900</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1">
+        <v>23000</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3">
+        <f>VLOOKUP(G2,Tabela2[],3,FALSE)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="1">
+        <v>11000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="1">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>8000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2" xr:uid="{A626ED15-C02C-4E07-8820-4151C7CE3021}">
+      <formula1>$B$3:$B$12</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C598E0FD-BDA9-4193-A9AC-FA37890B64BB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FE29F7F-4334-4C7F-846F-D72E6668F35A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>